--- a/biology/Microbiologie/Spirodiniidae/Spirodiniidae.xlsx
+++ b/biology/Microbiologie/Spirodiniidae/Spirodiniidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Spirodiniidae sont une famille de Ciliés de la classe des Litostomatea et de l'ordre des Entodiniomorphida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Spirodinium, composé du préfixe spiro-, « spire », et du suffixe -din (du grec δίνη / dini, « tourbillon, vortex », en référence aux « cils disposée en spirale »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Spirodinium, composé du préfixe spiro-, « spire », et du suffixe -din (du grec δίνη / dini, « tourbillon, vortex », en référence aux « cils disposée en spirale ».
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« Le genre Spirodinium est caractérisé par la présence d’une ligne de cils disposés en spirale, entourant le péristome, puis faisant plusieurs fois le tour du corps. Cuticule rigide. Noyau allongé et irrégulier.
-L'espèce unique, Spirodinium equi Fiorentini, 1890, mesure 230 µm de long sur 60 µm de large[1]. »
-Selon Lynn, l'organisme est de taille moyenne ; sa forme est allongée à globuleuse, souvent nettement aplatie latéralement. Il nage librement dans son milieu de vie. Ses cils somatiques se présentent sous forme de deux à quatre rubans ou bandes non rétractables, en spirale autour du corps à différents niveaux. Il n'a pas de plaques squelettiques. Sa ciliature buccale est non rétractable, en deux bandes, avec « polybrachycinétie adorale et polybrachycinétie dorsale périvestibulaire »[note 1]. Son macronoyau est allongé et en forme de bande ;le micronoyau est présent. Il possède une ou deux vacuoles contractiles ; un cytoprocte[1].
+L'espèce unique, Spirodinium equi Fiorentini, 1890, mesure 230 µm de long sur 60 µm de large. »
+Selon Lynn, l'organisme est de taille moyenne ; sa forme est allongée à globuleuse, souvent nettement aplatie latéralement. Il nage librement dans son milieu de vie. Ses cils somatiques se présentent sous forme de deux à quatre rubans ou bandes non rétractables, en spirale autour du corps à différents niveaux. Il n'a pas de plaques squelettiques. Sa ciliature buccale est non rétractable, en deux bandes, avec « polybrachycinétie adorale et polybrachycinétie dorsale périvestibulaire »[note 1]. Son macronoyau est allongé et en forme de bande ;le micronoyau est présent. Il possède une ou deux vacuoles contractiles ; un cytoprocte.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Spirodinium a été découvert par Fiorentini dans le cæcum du cheval[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Spirodinium a été découvert par Fiorentini dans le cæcum du cheval.
 </t>
         </is>
       </c>
@@ -606,13 +624,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Taxonomicon  (14 juillet 2023)[2] et GBIF       (14 juillet 2023)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Taxonomicon  (14 juillet 2023) et GBIF       (14 juillet 2023) :
 Cochliatoxum Gassovsky, 1919
 Spirodinium Fiorentini, 1890
 Espèce type : Spirodinium equi Fiorentini, 1890
-Selon Lynn (2008)[4] :
+Selon Lynn (2008) :
 Cochliatoxum Gassovsky, 1919
 Ditoxum Gassovsky, 1919
 Gassovskiella Grain, 1994
@@ -646,9 +666,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Spirodiniidae Strelkow (d), 1939[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Spirodiniidae Strelkow (d), 1939.
 </t>
         </is>
       </c>
